--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P32_trail15 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P32_trail15 Features.xlsx
@@ -5335,7 +5335,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5346,29 +5346,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5389,115 +5387,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5514,72 +5502,66 @@
         <v>2.367595265419607e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.194356533564914</v>
+        <v>1.499243707045478e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>3.007161143945354</v>
+        <v>2.095285754985249e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.499243707045478e-06</v>
+        <v>0.06322172493062975</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.095285754985249e-06</v>
+        <v>0.3623315291236021</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.06322172493062975</v>
+        <v>0.1349012761036655</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3623315291236021</v>
+        <v>1.925134898178126</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1349012761036655</v>
+        <v>3.814611172316542</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.962305670207657</v>
+        <v>7.446339552656954</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.814611172316542</v>
+        <v>3.597716456581282e-18</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>7.446339552656954</v>
+        <v>38820952052.30824</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.597716456581282e-18</v>
+        <v>3.091887113292248e-09</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>38820952052.30824</v>
+        <v>5421.99729431881</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.091887113292248e-09</v>
+        <v>6.634788519295694e-06</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>5421.99729431881</v>
+        <v>12.35234737661918</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>6.634788519295694e-06</v>
+        <v>1.086192621844244</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>12.35234737661918</v>
+        <v>0.001012339254874989</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.086192621844244</v>
+        <v>8.643188104606882</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.001012339254874989</v>
+        <v>0.9645186479660535</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>8.643188104606882</v>
+        <v>0.6482623545383689</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9645186479660535</v>
+        <v>92</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.6482623545383689</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>18.79769437393234</v>
       </c>
     </row>
@@ -5594,72 +5576,66 @@
         <v>2.058676597187898e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.3221296643072309</v>
+        <v>1.015166069849741e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.6597938370448255</v>
+        <v>2.105862344448495e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.015166069849741e-06</v>
+        <v>0.03276729199509072</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.105862344448495e-06</v>
+        <v>0.2905339263399787</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.03276729199509072</v>
+        <v>0.08524085002270586</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2905339263399787</v>
+        <v>1.925860010012143</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.08524085002270586</v>
+        <v>3.602389005914424</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.960131829085917</v>
+        <v>8.647257572158775</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.602389005914424</v>
+        <v>4.69470176696655e-18</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>8.647257572158775</v>
+        <v>30968124322.17828</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.69470176696655e-18</v>
+        <v>3.884093490380931e-09</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>30968124322.17828</v>
+        <v>4502.335066486511</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.884093490380931e-09</v>
+        <v>4.875793014492116e-06</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>4502.335066486511</v>
+        <v>12.28151782119957</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>4.875793014492116e-06</v>
+        <v>1.177060029763499</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>12.28151782119957</v>
+        <v>0.0007354435548433196</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.177060029763499</v>
+        <v>8.79508682364677</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.0007354435548433196</v>
+        <v>0.9641111306950219</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>8.79508682364677</v>
+        <v>0.6798051901141744</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9641111306950219</v>
+        <v>80</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.6798051901141744</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>19.44471121869244</v>
       </c>
     </row>
@@ -5674,72 +5650,66 @@
         <v>1.973221857435506e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.1040773816952668</v>
+        <v>6.861081649397539e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.288414988380569</v>
+        <v>2.10959443451318e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>6.861081649397539e-07</v>
+        <v>0.005684339225406906</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.10959443451318e-06</v>
+        <v>0.2143623995173397</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.005684339225406906</v>
+        <v>0.04586227927097938</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2143623995173397</v>
+        <v>1.918495758885227</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.04586227927097938</v>
+        <v>3.33511245164989</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.954319510935927</v>
+        <v>7.723713778448364</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.33511245164989</v>
+        <v>5.884539146079517e-18</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>7.723713778448364</v>
+        <v>24434171637.40378</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>5.884539146079517e-18</v>
+        <v>4.920909500728204e-09</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>24434171637.40378</v>
+        <v>3513.23901308481</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.920909500728204e-09</v>
+        <v>8.713637359438406e-06</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>3513.23901308481</v>
+        <v>12.78162805262335</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>8.713637359438406e-06</v>
+        <v>1.128582288697872</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>12.78162805262335</v>
+        <v>0.001423547072003018</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.128582288697872</v>
+        <v>8.497488648806183</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.001423547072003018</v>
+        <v>0.9647477124956123</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>8.497488648806183</v>
+        <v>0.6715688098247242</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9647477124956123</v>
+        <v>68</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.6715688098247242</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>18.51653430205064</v>
       </c>
     </row>
@@ -5754,72 +5724,66 @@
         <v>1.98605219441913e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.1143774641854562</v>
+        <v>6.269147460098091e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.285628314079644</v>
+        <v>2.108636476114169e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>6.269147460098091e-07</v>
+        <v>-0.0140021442837883</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.108636476114169e-06</v>
+        <v>0.1522906551652345</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.0140021442837883</v>
+        <v>0.02333005042013012</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1522906551652345</v>
+        <v>1.921620551700091</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02333005042013012</v>
+        <v>3.226026109473622</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.953539845809861</v>
+        <v>7.392923348475476</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.226026109473622</v>
+        <v>6.422918223801851e-18</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>7.392923348475476</v>
+        <v>22103141071.04962</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>6.422918223801851e-18</v>
+        <v>5.438758959413568e-09</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>22103141071.04962</v>
+        <v>3137.909281095594</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>5.438758959413568e-09</v>
+        <v>2.048665148595341e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>3137.909281095594</v>
+        <v>13.0414384273743</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>2.048665148595341e-05</v>
+        <v>1.003202717766013</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>13.0414384273743</v>
+        <v>0.003484351579755036</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.003202717766013</v>
+        <v>7.812355379552789</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.003484351579755036</v>
+        <v>0.963868850509079</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>7.812355379552789</v>
+        <v>0.7427033321412633</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.963868850509079</v>
+        <v>56</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.7427033321412633</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>16.0546764691142</v>
       </c>
     </row>
@@ -5834,72 +5798,66 @@
         <v>2.030001418043993e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.1215523473753665</v>
+        <v>6.335117962557463e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.30997610892769</v>
+        <v>2.10439274845426e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>6.335117962557463e-07</v>
+        <v>-0.02721482241735379</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.10439274845426e-06</v>
+        <v>0.1069980483690754</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.02721482241735379</v>
+        <v>0.01216237465076431</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1069980483690754</v>
+        <v>1.920269617443782</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01216237465076431</v>
+        <v>3.184510006308604</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.956068119101262</v>
+        <v>7.700989398914233</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>3.184510006308604</v>
+        <v>5.913814560324164e-18</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>7.700989398914233</v>
+        <v>23096975849.38929</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>5.913814560324164e-18</v>
+        <v>5.188863437388799e-09</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>23096975849.38929</v>
+        <v>3154.844388534052</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>5.188863437388799e-09</v>
+        <v>3.05553537384795e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>3154.844388534052</v>
+        <v>12.43432409958858</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>3.05553537384795e-05</v>
+        <v>1.039312475991682</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>12.43432409958858</v>
+        <v>0.004724237057545716</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.039312475991682</v>
+        <v>7.390538207254452</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.004724237057545716</v>
+        <v>0.9638517841725621</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>7.390538207254452</v>
+        <v>0.8309677949731799</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9638517841725621</v>
+        <v>42</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.8309677949731799</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>14.07057330652342</v>
       </c>
     </row>
@@ -5914,72 +5872,66 @@
         <v>2.07557965999632e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.0953507111884202</v>
+        <v>6.397133213784572e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.346260003197277</v>
+        <v>2.09784101564347e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>6.397133213784572e-07</v>
+        <v>-0.03589186290417355</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.09784101564347e-06</v>
+        <v>0.07556453256683503</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.03589186290417355</v>
+        <v>0.006986129912358935</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.07556453256683503</v>
+        <v>1.919474705800393</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.006986129912358935</v>
+        <v>3.111435972445105</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.953770193310801</v>
+        <v>7.91601307378956</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>3.111435972445105</v>
+        <v>5.596902581217974e-18</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>7.91601307378956</v>
+        <v>24401933898.57719</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>5.596902581217974e-18</v>
+        <v>4.909521548904113e-09</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>24401933898.57719</v>
+        <v>3332.700145172743</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.909521548904113e-09</v>
+        <v>3.339777023677529e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>3332.700145172743</v>
+        <v>10.60111996028956</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>3.339777023677529e-05</v>
+        <v>1.171091406055129</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.60111996028956</v>
+        <v>0.003753366474235476</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.171091406055129</v>
+        <v>7.226909071172285</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.003753366474235476</v>
+        <v>0.9636799367467508</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>7.226909071172285</v>
+        <v>0.8218580607195339</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9636799367467508</v>
+        <v>34</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.8218580607195339</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>12.32741970131155</v>
       </c>
     </row>
@@ -5994,72 +5946,66 @@
         <v>2.112132008744742e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.05192210367046075</v>
+        <v>6.451986729939083e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.362989033827874</v>
+        <v>2.089675586276269e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>6.451986729939083e-07</v>
+        <v>-0.04160024416892402</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.089675586276269e-06</v>
+        <v>0.05408420377822938</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.04160024416892402</v>
+        <v>0.004650490485605798</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.05408420377822938</v>
+        <v>1.916762667233851</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.004650490485605798</v>
+        <v>3.539995589315998</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.955305277230037</v>
+        <v>7.492484586681469</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>3.539995589315998</v>
+        <v>6.359312856314908e-18</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>7.492484586681469</v>
+        <v>21153109809.86461</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>6.359312856314908e-18</v>
+        <v>5.646539165084625e-09</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>21153109809.86461</v>
+        <v>2845.500322207285</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>5.646539165084625e-09</v>
+        <v>2.663937722041249e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>2845.500322207285</v>
+        <v>8.319357369110207</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>2.663937722041249e-05</v>
+        <v>1.402905146916053</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.319357369110207</v>
+        <v>0.001843756771773197</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.402905146916053</v>
+        <v>7.190361121531429</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.001843756771773197</v>
+        <v>0.9634361343315817</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>7.190361121531429</v>
+        <v>0.8290479009709434</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9634361343315817</v>
+        <v>22</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.8290479009709434</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>11.6237803033519</v>
       </c>
     </row>
@@ -6074,72 +6020,66 @@
         <v>2.137028297966939e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.004524523083232253</v>
+        <v>6.496467146524038e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.361167020830515</v>
+        <v>2.080402037259786e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>6.496467146524038e-07</v>
+        <v>-0.04534620324685439</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.080402037259786e-06</v>
+        <v>0.03974842450256527</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.04534620324685439</v>
+        <v>0.003634214401463763</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.03974842450256527</v>
+        <v>1.911830439373447</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.003634214401463763</v>
+        <v>2.963774183024593</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.951893267162106</v>
+        <v>5.945310133064933</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.963774183024593</v>
+        <v>8.65478906817941e-18</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>5.945310133064933</v>
+        <v>15064557113.55193</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>8.65478906817941e-18</v>
+        <v>7.932397902182953e-09</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>15064557113.55193</v>
+        <v>1964.125456239534</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>7.932397902182953e-09</v>
+        <v>3.551879482122874e-05</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>1964.125456239534</v>
+        <v>7.700804984650362</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>3.551879482122874e-05</v>
+        <v>1.655504861023373</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>7.700804984650362</v>
+        <v>0.00210634968607015</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.655504861023373</v>
+        <v>6.73416493006218</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.00210634968607015</v>
+        <v>0.9637563094751744</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>6.73416493006218</v>
+        <v>0.8770480736320103</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9637563094751744</v>
+        <v>6</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.8770480736320103</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>10.2302324618048</v>
       </c>
     </row>
@@ -6154,72 +6094,66 @@
         <v>2.150673412257498e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.04093021616057058</v>
+        <v>6.526470871185881e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.349414203686912</v>
+        <v>2.070394307719703e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>6.526470871185881e-07</v>
+        <v>-0.047764501196446</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.070394307719703e-06</v>
+        <v>0.03062867732972735</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.047764501196446</v>
+        <v>0.003218980393164678</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.03062867732972735</v>
+        <v>1.911258015023229</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.003218980393164678</v>
+        <v>2.664368551896121</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.951667848624808</v>
+        <v>5.776571970708101</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.664368551896121</v>
+        <v>1.620539651641765e-17</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>5.776571970708101</v>
+        <v>8046264252.456032</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.620539651641765e-17</v>
+        <v>1.483660139427683e-08</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>8046264252.456032</v>
+        <v>1049.175751663798</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.483660139427683e-08</v>
+        <v>6.255471109658932e-05</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>1049.175751663798</v>
+        <v>6.89179901233529</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>6.255471109658932e-05</v>
+        <v>1.757665406193192</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>6.89179901233529</v>
+        <v>0.002971154458786493</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.757665406193192</v>
+        <v>5.670328502935845</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.002971154458786493</v>
+        <v>0.9639387683539805</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>5.670328502935845</v>
+        <v>0.8952387670461326</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9639387683539805</v>
+        <v>6</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.8952387670461326</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>6.377917675865831</v>
       </c>
     </row>
@@ -6234,72 +6168,66 @@
         <v>2.154245905291093e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.08285153646869872</v>
+        <v>6.537324490853223e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.334342685703988</v>
+        <v>2.05992847651563e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>6.537324490853223e-07</v>
+        <v>-0.04930630617947451</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.05992847651563e-06</v>
+        <v>0.025173382391822</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.04930630617947451</v>
+        <v>0.003064794977804037</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.025173382391822</v>
+        <v>1.909641021744735</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.003064794977804037</v>
+        <v>2.555093959690067</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.950116673877821</v>
+        <v>4.95519260440904</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.555093959690067</v>
+        <v>2.743627674801664e-17</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.95519260440904</v>
+        <v>4811337623.255784</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.743627674801664e-17</v>
+        <v>2.479307625428058e-08</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>4811337623.255784</v>
+        <v>635.1215398053685</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>2.479307625428058e-08</v>
+        <v>0.0001248038254182315</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>635.1215398053685</v>
+        <v>9.577520233052288</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001248038254182315</v>
+        <v>1.359740610523072</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.577520233052288</v>
+        <v>0.0114481168494356</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.359740610523072</v>
+        <v>4.429026574259886</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.0114481168494356</v>
+        <v>0.9635785625694152</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>4.429026574259886</v>
+        <v>0.9263882250681391</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9635785625694152</v>
+        <v>4</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.9263882250681391</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>3.685589005987818</v>
       </c>
     </row>
@@ -6314,72 +6242,66 @@
         <v>2.14875597137386e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.121319173933399</v>
+        <v>6.537324875981878e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.31979709874849</v>
+        <v>2.049203324250649e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>6.537324875981878e-07</v>
+        <v>-0.05024888317739332</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.049203324250649e-06</v>
+        <v>0.02249075257147243</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.05024888317739332</v>
+        <v>0.003031021960346478</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.02249075257147243</v>
+        <v>1.909647609573982</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.003031021960346478</v>
+        <v>2.52296268441993</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.948569775415509</v>
+        <v>4.554805466591647</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.52296268441993</v>
+        <v>3.565126121480236e-17</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.554805466591647</v>
+        <v>3709656517.531283</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>3.565126121480236e-17</v>
+        <v>3.219205590606052e-08</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>3709656517.531283</v>
+        <v>490.6166664653494</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>3.219205590606052e-08</v>
+        <v>0.0001628590188321436</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>490.6166664653494</v>
+        <v>11.65749078004785</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001628590188321436</v>
+        <v>1.13221435750849</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>11.65749078004785</v>
+        <v>0.0221320669491269</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.13221435750849</v>
+        <v>3.734357246506055</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.0221320669491269</v>
+        <v>0.9635789837762704</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.734357246506055</v>
+        <v>0.9669641296651792</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9635789837762704</v>
+        <v>4</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.9669641296651792</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>2.731441000861599</v>
       </c>
     </row>
@@ -6394,72 +6316,66 @@
         <v>2.135271807078626e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.1570464091138313</v>
+        <v>6.537324875981878e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.307470852007977</v>
+        <v>2.038377003668272e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>6.537324875981878e-07</v>
+        <v>-0.05073260055207957</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.038377003668272e-06</v>
+        <v>0.02210854703469072</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05073260055207957</v>
+        <v>0.003062907812391004</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.02210854703469072</v>
+        <v>1.913938654814083</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.003062907812391004</v>
+        <v>2.598255506414274</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.944201706522288</v>
+        <v>5.142771082698744</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.598255506414274</v>
+        <v>3.726662947601919e-17</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>5.142771082698744</v>
+        <v>3652217835.842314</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>3.726662947601919e-17</v>
+        <v>3.285186149871121e-08</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>3652217835.842314</v>
+        <v>497.0882087471985</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>3.285186149871121e-08</v>
+        <v>0.0001691150487897729</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>497.0882087471985</v>
+        <v>12.82641162635199</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001691150487897729</v>
+        <v>1.036036414169604</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>12.82641162635199</v>
+        <v>0.02782227261304438</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.036036414169604</v>
+        <v>3.440456060791986</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.02782227261304438</v>
+        <v>0.9609681129188491</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.440456060791986</v>
+        <v>1.120055791327124</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9609681129188491</v>
+        <v>17</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.120055791327124</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>2.458897603776293</v>
       </c>
     </row>
@@ -6474,72 +6390,66 @@
         <v>2.115141534310495e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.1907799960169969</v>
+        <v>6.528273788534199e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.297354226355898</v>
+        <v>2.027561992116709e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>6.528273788534199e-07</v>
+        <v>-0.05098882997064767</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.027561992116709e-06</v>
+        <v>0.02285790309313481</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.05098882997064767</v>
+        <v>0.003122669009556885</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.02285790309313481</v>
+        <v>1.916261602160742</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.003122669009556885</v>
+        <v>2.592051496096282</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.943753427425271</v>
+        <v>4.818313631015977</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.592051496096282</v>
+        <v>5.012399445681486e-17</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.818313631015977</v>
+        <v>2735683126.956865</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>5.012399445681486e-17</v>
+        <v>4.390338509076429e-08</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>2735683126.956865</v>
+        <v>375.1260783800551</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>4.390338509076429e-08</v>
+        <v>0.0001724491731745459</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>375.1260783800551</v>
+        <v>9.796357584488108</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001724491731745459</v>
+        <v>1.367710723011975</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.796357584488108</v>
+        <v>0.01654970950134914</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.367710723011975</v>
+        <v>3.382800480452058</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01654970950134914</v>
+        <v>0.9592753971365554</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.382800480452058</v>
+        <v>1.155792284514352</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9592753971365554</v>
+        <v>17</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.155792284514352</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>1.424309749451858</v>
       </c>
     </row>
@@ -6554,72 +6464,66 @@
         <v>2.089494523053816e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.2227705290565014</v>
+        <v>6.494389941362862e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.289313314394084</v>
+        <v>2.016815467006704e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>6.494389941362862e-07</v>
+        <v>-0.05122616483927481</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.016815467006704e-06</v>
+        <v>0.02391175117811471</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.05122616483927481</v>
+        <v>0.003196206205676648</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.02391175117811471</v>
+        <v>1.913214701632773</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.003196206205676648</v>
+        <v>2.564840580936778</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.939654666451782</v>
+        <v>4.592753823788174</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.564840580936778</v>
+        <v>6.959497179141355e-17</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.592753823788174</v>
+        <v>1978261908.899869</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>6.959497179141355e-17</v>
+        <v>6.066985192870733e-08</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>1978261908.899869</v>
+        <v>272.3613265464359</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>6.066985192870733e-08</v>
+        <v>0.0001844861142720582</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>272.3613265464359</v>
+        <v>8.756871371729595</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001844861142720582</v>
+        <v>1.615890611733568</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.756871371729595</v>
+        <v>0.01414691110633156</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.615890611733568</v>
+        <v>3.105103001124586</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01414691110633156</v>
+        <v>0.9579697561023938</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.105103001124586</v>
+        <v>1.179857823327398</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9579697561023938</v>
+        <v>17</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.179857823327398</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.7532608134727913</v>
       </c>
     </row>
@@ -6634,72 +6538,66 @@
         <v>2.059085159492596e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.2527697712081369</v>
+        <v>6.437721643095735e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.28404743712388</v>
+        <v>2.006158504187853e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>6.437721643095735e-07</v>
+        <v>-0.05148336023531475</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.006158504187853e-06</v>
+        <v>0.02505239868310647</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.05148336023531475</v>
+        <v>0.003278419511329492</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.02505239868310647</v>
+        <v>1.914962794724206</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.003278419511329492</v>
+        <v>2.657241625953016</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.93964849890104</v>
+        <v>4.150603071114386</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.657241625953016</v>
+        <v>8.521220270843345e-17</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.150603071114386</v>
+        <v>1567409468.982676</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>8.521220270843345e-17</v>
+        <v>7.64497226093841e-08</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>1567409468.982676</v>
+        <v>209.3469914603134</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>7.64497226093841e-08</v>
+        <v>0.0001758795452903666</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>209.3469914603134</v>
+        <v>9.72013631847544</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001758795452903666</v>
+        <v>1.276845299597509</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.72013631847544</v>
+        <v>0.01661728412130557</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.276845299597509</v>
+        <v>2.905414720553749</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01661728412130557</v>
+        <v>0.9584889908705645</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.905414720553749</v>
+        <v>1.182012480278205</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9584889908705645</v>
+        <v>13</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.182012480278205</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.5620270532715212</v>
       </c>
     </row>
@@ -6714,72 +6612,66 @@
         <v>2.024926677914156e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.2811507465097387</v>
+        <v>6.348830265946964e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.28128885360356</v>
+        <v>1.995627131683973e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>6.348830265946964e-07</v>
+        <v>-0.05162115673303343</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.995627131683973e-06</v>
+        <v>0.02631808965220725</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.05162115673303343</v>
+        <v>0.003357564837411205</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.02631808965220725</v>
+        <v>1.923012401873372</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.003357564837411205</v>
+        <v>2.619059574138865</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.941882159080071</v>
+        <v>4.037176091784229</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.619059574138865</v>
+        <v>9.006764608210097e-17</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.037176091784229</v>
+        <v>1476459033.46555</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>9.006764608210097e-17</v>
+        <v>8.124536744346946e-08</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>1476459033.46555</v>
+        <v>196.3412787853548</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>8.124536744346946e-08</v>
+        <v>0.0001821310448284692</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>196.3412787853548</v>
+        <v>11.36535585107161</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001821310448284692</v>
+        <v>1.093989286265128</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>11.36535585107161</v>
+        <v>0.0235261063117474</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.093989286265128</v>
+        <v>2.653048627918123</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.0235261063117474</v>
+        <v>0.9582213411094134</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.653048627918123</v>
+        <v>1.200520190292889</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9582213411094134</v>
+        <v>38</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.200520190292889</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.5337481754072353</v>
       </c>
     </row>
@@ -7156,7 +7048,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.452851588321666</v>
+        <v>1.409050691588708</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.865363136941271</v>
@@ -7245,7 +7137,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.471817449257583</v>
+        <v>1.426377374468506</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.677741858915491</v>
@@ -7334,7 +7226,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.471055147967535</v>
+        <v>1.407957963097212</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.73254134174905</v>
@@ -7423,7 +7315,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.496732558151827</v>
+        <v>1.453587104671302</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.060163600380116</v>
@@ -7512,7 +7404,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.505796598599715</v>
+        <v>1.465013209347604</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.322845326495973</v>
@@ -7601,7 +7493,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.481932422628655</v>
+        <v>1.438307328048988</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.846684588345771</v>
@@ -7690,7 +7582,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.443474843852053</v>
+        <v>1.399523963639626</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.9016226986972</v>
@@ -7779,7 +7671,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.382750161782171</v>
+        <v>1.347517259023173</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.937067154564544</v>
@@ -7868,7 +7760,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.398400247573903</v>
+        <v>1.363692179183828</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.951108215630667</v>
@@ -7957,7 +7849,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.403580453508336</v>
+        <v>1.368204287722759</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.95380283694061</v>
@@ -8046,7 +7938,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.409361192856575</v>
+        <v>1.37563641878723</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.923426768215652</v>
@@ -8135,7 +8027,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.413124143807827</v>
+        <v>1.378775952344888</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.948835407298102</v>
@@ -8224,7 +8116,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.416605597392842</v>
+        <v>1.385427089580807</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.93617624522948</v>
@@ -8313,7 +8205,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.407251412288778</v>
+        <v>1.377623728432688</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.963974045454377</v>
@@ -8402,7 +8294,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.393142369847062</v>
+        <v>1.367373837595886</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.894994911927355</v>
@@ -8491,7 +8383,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.403372685826477</v>
+        <v>1.380890195326729</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.91964505681259</v>
@@ -8580,7 +8472,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.410715756679394</v>
+        <v>1.389775985741766</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.903818133959259</v>
@@ -8669,7 +8561,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.418597971690751</v>
+        <v>1.392709727221488</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.919549321283408</v>
@@ -8758,7 +8650,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.421350498258845</v>
+        <v>1.396403857010508</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.91936021302803</v>
@@ -8847,7 +8739,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.407683223631347</v>
+        <v>1.390770148765774</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.931636437143347</v>
@@ -8936,7 +8828,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.446311643830035</v>
+        <v>1.431488529751337</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.948627957449205</v>
@@ -9025,7 +8917,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.418585838007414</v>
+        <v>1.414213784293768</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.73006221500896</v>
@@ -9114,7 +9006,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.437047499711152</v>
+        <v>1.414168063763092</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.762914707419295</v>
@@ -9203,7 +9095,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.431097853065582</v>
+        <v>1.407903429653641</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.769680295397442</v>
@@ -9292,7 +9184,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.429404155824207</v>
+        <v>1.406680447102183</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.762633932620287</v>
@@ -9381,7 +9273,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.428044186088116</v>
+        <v>1.40293916725115</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.760038265416511</v>
@@ -9470,7 +9362,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.425716343447587</v>
+        <v>1.402138374207147</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.759067828670124</v>
@@ -9559,7 +9451,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.428554647778961</v>
+        <v>1.401648690796268</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.758352005998985</v>
@@ -9648,7 +9540,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.445474530063088</v>
+        <v>1.412356253718315</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.764508592855433</v>
@@ -9737,7 +9629,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.443584197332349</v>
+        <v>1.409911170410362</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.759600248875814</v>
@@ -9826,7 +9718,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.441197188557341</v>
+        <v>1.4044731702735</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.741230628586171</v>
@@ -9915,7 +9807,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.435750869579424</v>
+        <v>1.399137932108224</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.737574801163705</v>
@@ -10004,7 +9896,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.422616119365831</v>
+        <v>1.3890005975398</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.738783578196917</v>
@@ -10093,7 +9985,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.333700721494226</v>
+        <v>1.306271020949635</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.720702929576693</v>
@@ -10182,7 +10074,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.338537013057624</v>
+        <v>1.311014626247565</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.713906986665358</v>
@@ -10271,7 +10163,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.345066089405721</v>
+        <v>1.313480028083117</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.733378188020485</v>
@@ -10360,7 +10252,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.373047766732465</v>
+        <v>1.329251976281868</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.605349897996507</v>
@@ -10449,7 +10341,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.364885847069727</v>
+        <v>1.333690436895667</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.515832707293684</v>
@@ -10538,7 +10430,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.364632702825515</v>
+        <v>1.330191425359768</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.520161923042925</v>
@@ -10627,7 +10519,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.365736324428485</v>
+        <v>1.330595379055506</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.525588200518071</v>
@@ -10716,7 +10608,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.36467319604157</v>
+        <v>1.333537635655669</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.517844005006963</v>
@@ -10805,7 +10697,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.364924960557264</v>
+        <v>1.33157838811053</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.51126043905356</v>
@@ -10894,7 +10786,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.362061743453117</v>
+        <v>1.329393122507575</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.510993409153508</v>
@@ -10983,7 +10875,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.36038659059272</v>
+        <v>1.330819135729407</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.509142214039321</v>
@@ -11072,7 +10964,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.365977445799851</v>
+        <v>1.334703346701798</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.508862506699542</v>
@@ -11161,7 +11053,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.365415750443962</v>
+        <v>1.337665213374421</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.507113089815912</v>
@@ -11250,7 +11142,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.367967718525645</v>
+        <v>1.339267896245183</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.511345566425863</v>
@@ -11339,7 +11231,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.413097957396765</v>
+        <v>1.370365284036331</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.520838460830781</v>
@@ -11428,7 +11320,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.687104307741058</v>
+        <v>1.601574343769717</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.037099236500672</v>
@@ -11517,7 +11409,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.704530129458803</v>
+        <v>1.609065662323477</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.632621562520656</v>
@@ -11606,7 +11498,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.70118514640587</v>
+        <v>1.609227626683085</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.541335364124442</v>
@@ -11695,7 +11587,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.702009808397789</v>
+        <v>1.617772084891937</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.391505903562598</v>
@@ -11784,7 +11676,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.711727132714895</v>
+        <v>1.622739585046363</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.457318529709032</v>
@@ -11873,7 +11765,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.723976823256573</v>
+        <v>1.639206622720892</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.517440887306451</v>
@@ -11962,7 +11854,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.721902628875283</v>
+        <v>1.639060670658714</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.24832049906205</v>
@@ -12051,7 +11943,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.729537715778346</v>
+        <v>1.649417695566536</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.325660410385331</v>
@@ -12140,7 +12032,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.735200713895904</v>
+        <v>1.660360751259693</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.618610214115403</v>
@@ -12229,7 +12121,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.734791804716574</v>
+        <v>1.660827234481719</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.131642444865779</v>
@@ -12318,7 +12210,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.736276427426648</v>
+        <v>1.663987516207298</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.123996747815906</v>
@@ -12407,7 +12299,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.738850497782005</v>
+        <v>1.666287289004084</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.127175830686717</v>
@@ -12496,7 +12388,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.733669971024611</v>
+        <v>1.663402502992702</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.622426771592225</v>
@@ -12782,7 +12674,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.510934896157954</v>
+        <v>1.479271619266415</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.982419077273751</v>
@@ -12871,7 +12763,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.541393197794035</v>
+        <v>1.500050005733393</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.74257312746544</v>
@@ -12960,7 +12852,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.506673218894368</v>
+        <v>1.433867058986987</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.780079138104119</v>
@@ -13049,7 +12941,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.561760253715183</v>
+        <v>1.494467493391731</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.095451157201466</v>
@@ -13138,7 +13030,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.575787436654689</v>
+        <v>1.510467341662561</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.386798430715525</v>
@@ -13227,7 +13119,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.512723826599943</v>
+        <v>1.451723737157211</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.797820150181669</v>
@@ -13316,7 +13208,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.446885215167208</v>
+        <v>1.40110980680589</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.838362106752289</v>
@@ -13405,7 +13297,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.380082633294365</v>
+        <v>1.344771492869483</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.856457103261234</v>
@@ -13494,7 +13386,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.379872338874089</v>
+        <v>1.347572233511201</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.872385496469854</v>
@@ -13583,7 +13475,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.385258587266394</v>
+        <v>1.352920195623116</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.850703159190389</v>
@@ -13672,7 +13564,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.383567508572864</v>
+        <v>1.35266569475969</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.853595942348656</v>
@@ -13761,7 +13653,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.389340571751996</v>
+        <v>1.357505284645962</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.880199245086004</v>
@@ -13850,7 +13742,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.392397106792534</v>
+        <v>1.362936021372465</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.862575730126028</v>
@@ -13939,7 +13831,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.399272629459022</v>
+        <v>1.37126700727172</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.894944116172774</v>
@@ -14028,7 +13920,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.391606116213479</v>
+        <v>1.364929767603714</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.854126830745061</v>
@@ -14117,7 +14009,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.40546907507108</v>
+        <v>1.384433869896762</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.879618457315061</v>
@@ -14206,7 +14098,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.414000868350458</v>
+        <v>1.395754649792951</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.862974099123955</v>
@@ -14295,7 +14187,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.423652608835767</v>
+        <v>1.404107543369923</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.898257132660587</v>
@@ -14384,7 +14276,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.429143820555038</v>
+        <v>1.416296801297316</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.889926677125537</v>
@@ -14473,7 +14365,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.419008369801548</v>
+        <v>1.411808120022925</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.919561512119175</v>
@@ -14562,7 +14454,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.489860377244077</v>
+        <v>1.483097134581629</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.922997765523615</v>
@@ -14651,7 +14543,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.458681708279811</v>
+        <v>1.45305525209799</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.754047631930782</v>
@@ -14740,7 +14632,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.474885144409594</v>
+        <v>1.451655056375527</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.778713183976234</v>
@@ -14829,7 +14721,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.467192971995131</v>
+        <v>1.443641477958171</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.772764797467705</v>
@@ -14918,7 +14810,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.465169659538299</v>
+        <v>1.443143155630557</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.777597805240124</v>
@@ -15007,7 +14899,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.464149491349526</v>
+        <v>1.439049828797687</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.771702108168799</v>
@@ -15096,7 +14988,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.461519560748576</v>
+        <v>1.437418125125199</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.771196264834422</v>
@@ -15185,7 +15077,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.463142760422492</v>
+        <v>1.434602419807008</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.771965893938788</v>
@@ -15274,7 +15166,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.468541711270182</v>
+        <v>1.432752003167937</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.767049855093424</v>
@@ -15363,7 +15255,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.463196974184304</v>
+        <v>1.425008947390142</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.768915192925187</v>
@@ -15452,7 +15344,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.453285008001879</v>
+        <v>1.40893853633228</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.738987323926615</v>
@@ -15541,7 +15433,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.437266842369511</v>
+        <v>1.394771626521622</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.738139780937616</v>
@@ -15630,7 +15522,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.390184293321392</v>
+        <v>1.351502369310896</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.763118962654893</v>
@@ -15719,7 +15611,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.217126771291646</v>
+        <v>1.19468303312007</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.426406002309963</v>
@@ -15808,7 +15700,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.209414585780968</v>
+        <v>1.189144338899904</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.426732641637196</v>
@@ -15897,7 +15789,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.211626072987224</v>
+        <v>1.189370611253343</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.426158638646526</v>
@@ -15986,7 +15878,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.195415011499411</v>
+        <v>1.168232121250048</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.372113299753998</v>
@@ -16075,7 +15967,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.180948550822631</v>
+        <v>1.158108228437365</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.345838390908736</v>
@@ -16164,7 +16056,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.179995221657968</v>
+        <v>1.155549904445372</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.347048046921777</v>
@@ -16253,7 +16145,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.178687268564873</v>
+        <v>1.153670135314002</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.347125404078937</v>
@@ -16342,7 +16234,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.178348218933538</v>
+        <v>1.155238115891</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.342698331634101</v>
@@ -16431,7 +16323,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.178784936071646</v>
+        <v>1.156014041518975</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.343824198734394</v>
@@ -16520,7 +16412,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.17949313822235</v>
+        <v>1.157417038874462</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.34509466011433</v>
@@ -16609,7 +16501,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.178819654604928</v>
+        <v>1.158031135598851</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.344855033882107</v>
@@ -16698,7 +16590,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.180239034305039</v>
+        <v>1.159844497499888</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.345065784891694</v>
@@ -16787,7 +16679,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.184203034698511</v>
+        <v>1.165089825563403</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.3453122450126</v>
@@ -16876,7 +16768,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.190545347989161</v>
+        <v>1.170880727095007</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.349815689710799</v>
@@ -16965,7 +16857,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.241368848320379</v>
+        <v>1.209554458916199</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.350654084946864</v>
@@ -17054,7 +16946,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.654016988531319</v>
+        <v>1.549074158148145</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.150095208822663</v>
@@ -17143,7 +17035,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.729402395750755</v>
+        <v>1.589663451981369</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.412026758010818</v>
@@ -17232,7 +17124,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.732337494986602</v>
+        <v>1.597453968428234</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.31360748440378</v>
@@ -17321,7 +17213,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.733152776702235</v>
+        <v>1.606820008352618</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.65759292299238</v>
@@ -17410,7 +17302,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.729680984364328</v>
+        <v>1.603083892965389</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.319755219475915</v>
@@ -17499,7 +17391,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.74303550424254</v>
+        <v>1.619417228151652</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.237368618070136</v>
@@ -17588,7 +17480,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.751169534567031</v>
+        <v>1.628478373507001</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.477566691555409</v>
@@ -17677,7 +17569,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.762216839870513</v>
+        <v>1.637274295108397</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.628727816985259</v>
@@ -17766,7 +17658,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.77358578791198</v>
+        <v>1.649476231931494</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.214950725682107</v>
@@ -17855,7 +17747,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.776650034244434</v>
+        <v>1.657154479340611</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.287943526051372</v>
@@ -17944,7 +17836,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.790022049153646</v>
+        <v>1.675413497548355</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.808020895012068</v>
@@ -18033,7 +17925,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.791125256851999</v>
+        <v>1.67931260342488</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.529617596868631</v>
@@ -18122,7 +18014,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.786432223225005</v>
+        <v>1.680036696230992</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.83141506520732</v>
@@ -18408,7 +18300,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.536235083060187</v>
+        <v>1.51460981122192</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.873460357007974</v>
@@ -18497,7 +18389,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.564558552715065</v>
+        <v>1.536015239262755</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.73001779182002</v>
@@ -18586,7 +18478,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.543512528814106</v>
+        <v>1.483231640558328</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.694841324487466</v>
@@ -18675,7 +18567,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.575724828867689</v>
+        <v>1.532691813851081</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.954962506534041</v>
@@ -18764,7 +18656,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.603237593787609</v>
+        <v>1.560753945315551</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.172767187267729</v>
@@ -18853,7 +18745,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.644779694220199</v>
+        <v>1.586809484265205</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.138614664701545</v>
@@ -18942,7 +18834,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.638667035485557</v>
+        <v>1.584590627963193</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.20740316981092</v>
@@ -19031,7 +18923,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.611716390448909</v>
+        <v>1.568222091726206</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.149272019255733</v>
@@ -19120,7 +19012,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.609880730647558</v>
+        <v>1.563350437258676</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.181959999925787</v>
@@ -19209,7 +19101,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.617331848216393</v>
+        <v>1.571954116887548</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.252218779820151</v>
@@ -19298,7 +19190,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.616040747563906</v>
+        <v>1.57001376371884</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.223286288694763</v>
@@ -19387,7 +19279,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.627777958795551</v>
+        <v>1.580246222093113</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.190500121341172</v>
@@ -19476,7 +19368,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.630832850069016</v>
+        <v>1.586295599070412</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.217507575197571</v>
@@ -19565,7 +19457,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.630297193078953</v>
+        <v>1.58778722807841</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.263050191168042</v>
@@ -19654,7 +19546,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.647196801636981</v>
+        <v>1.607967474525623</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.447864407809605</v>
@@ -19743,7 +19635,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.64708813608976</v>
+        <v>1.610581976438662</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.482648954916881</v>
@@ -19832,7 +19724,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.649230614918236</v>
+        <v>1.61090889027658</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.401769962170625</v>
@@ -19921,7 +19813,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.648316682121851</v>
+        <v>1.607490465757579</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.446290710080472</v>
@@ -20010,7 +19902,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.65405896390638</v>
+        <v>1.6157582854919</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.413687187098263</v>
@@ -20099,7 +19991,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.662407059988074</v>
+        <v>1.630614046470771</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.541399022367778</v>
@@ -20188,7 +20080,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.663385766374264</v>
+        <v>1.644888067121302</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.807426031608391</v>
@@ -20277,7 +20169,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.525377734662347</v>
+        <v>1.524510725340786</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.713517381602085</v>
@@ -20366,7 +20258,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.492097362474949</v>
+        <v>1.467633622606293</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.768137695862071</v>
@@ -20455,7 +20347,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.484834591814925</v>
+        <v>1.462124361582031</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.769364640821596</v>
@@ -20544,7 +20436,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.482500098086897</v>
+        <v>1.459648297423278</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.768308213474703</v>
@@ -20633,7 +20525,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.485993653859981</v>
+        <v>1.46290536669792</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.76759888146574</v>
@@ -20722,7 +20614,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.480212239366366</v>
+        <v>1.459540040405123</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.762349596702355</v>
@@ -20811,7 +20703,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.480151288901166</v>
+        <v>1.456343848294551</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.765403420679915</v>
@@ -20900,7 +20792,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.486399686147781</v>
+        <v>1.458469005950505</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.772737655341086</v>
@@ -20989,7 +20881,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.480087979510938</v>
+        <v>1.453773272800721</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.7667018940841</v>
@@ -21078,7 +20970,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.481377377524002</v>
+        <v>1.45150804698172</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.76159670587482</v>
@@ -21167,7 +21059,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.479520871008049</v>
+        <v>1.451147474534723</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.762064106362709</v>
@@ -21256,7 +21148,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.478687157396081</v>
+        <v>1.450264375569729</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.755869605023066</v>
@@ -21345,7 +21237,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.456000469181876</v>
+        <v>1.431452077552426</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.767248310375084</v>
@@ -21434,7 +21326,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.455670165337726</v>
+        <v>1.430118230860814</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.782178358109961</v>
@@ -21523,7 +21415,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.467774499910619</v>
+        <v>1.43993939780465</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.722957463512113</v>
@@ -21612,7 +21504,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.560410331171411</v>
+        <v>1.504363584525945</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.931241125753479</v>
@@ -21701,7 +21593,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.609031496251263</v>
+        <v>1.573576295857753</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.233589656810904</v>
@@ -21790,7 +21682,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.620452473173308</v>
+        <v>1.577515763860552</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.243815145903282</v>
@@ -21879,7 +21771,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.624770716554166</v>
+        <v>1.577759684722153</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.208306415747094</v>
@@ -21968,7 +21860,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.622507239511134</v>
+        <v>1.580820016202056</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.174874708071107</v>
@@ -22057,7 +21949,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.639902139132427</v>
+        <v>1.593534264786945</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.202890933471988</v>
@@ -22146,7 +22038,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.635237187931987</v>
+        <v>1.596572386853365</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.199961764380686</v>
@@ -22235,7 +22127,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.638862940075658</v>
+        <v>1.60001438901303</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.209744265566622</v>
@@ -22324,7 +22216,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.654704036560602</v>
+        <v>1.608873338802902</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.2124633923894</v>
@@ -22413,7 +22305,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.655393409339266</v>
+        <v>1.615960254380499</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.229215315632477</v>
@@ -22502,7 +22394,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.653030799847598</v>
+        <v>1.615595662726062</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.226558735849681</v>
@@ -22591,7 +22483,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.66045447470998</v>
+        <v>1.620558753580602</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.175182278284102</v>
@@ -22680,7 +22572,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.742249425121233</v>
+        <v>1.682604247679979</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.118338707966874</v>
@@ -22769,7 +22661,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.737568917746138</v>
+        <v>1.679047640095784</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.51695329025381</v>
@@ -22858,7 +22750,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.740264595581857</v>
+        <v>1.674461553333448</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.414660076729005</v>
@@ -22947,7 +22839,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.72976501328942</v>
+        <v>1.670601416144806</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.43334012550646</v>
@@ -23036,7 +22928,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.743289856988342</v>
+        <v>1.679680204098118</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.261137047705691</v>
@@ -23125,7 +23017,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.75496746374409</v>
+        <v>1.691855279017077</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.369898012846479</v>
@@ -23214,7 +23106,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.755550161892135</v>
+        <v>1.696694961312597</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.467595093616027</v>
@@ -23303,7 +23195,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.754152702489755</v>
+        <v>1.695850497147155</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.28112770204892</v>
@@ -23392,7 +23284,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.745102791649994</v>
+        <v>1.692174326129779</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.257209006864612</v>
@@ -23481,7 +23373,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.754122846028979</v>
+        <v>1.698947741759745</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.092891661795389</v>
@@ -23570,7 +23462,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.751938094138906</v>
+        <v>1.701909750819796</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.042343713410754</v>
@@ -23659,7 +23551,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.75803424776236</v>
+        <v>1.709513240328374</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.34594239758972</v>
@@ -23748,7 +23640,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.745538955473358</v>
+        <v>1.705468471766422</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.828712182965326</v>
@@ -24034,7 +23926,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.686219697567542</v>
+        <v>1.693243955287406</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.541015639544659</v>
@@ -24123,7 +24015,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.690688730340158</v>
+        <v>1.697216387997754</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.493793166334962</v>
@@ -24212,7 +24104,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.550120589245717</v>
+        <v>1.527764327879075</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.06183272160599</v>
@@ -24301,7 +24193,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.621913485470595</v>
+        <v>1.567113055128635</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.394356412351945</v>
@@ -24390,7 +24282,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.638284803675365</v>
+        <v>1.578060158965567</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.648224183729831</v>
@@ -24479,7 +24371,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.570416319174205</v>
+        <v>1.525931948081775</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.980466114973156</v>
@@ -24568,7 +24460,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.520236915786251</v>
+        <v>1.491568350383938</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.077624308974285</v>
@@ -24657,7 +24549,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.45612393645089</v>
+        <v>1.441216705979449</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.075618239672178</v>
@@ -24746,7 +24638,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.458624393469814</v>
+        <v>1.444591838727305</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.102732950888507</v>
@@ -24835,7 +24727,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.462759423255374</v>
+        <v>1.447896604397851</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.041169410684021</v>
@@ -24924,7 +24816,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.463931492071265</v>
+        <v>1.44953088182706</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.074469708029448</v>
@@ -25013,7 +24905,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.46841819038167</v>
+        <v>1.454138249066679</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.107987269330634</v>
@@ -25102,7 +24994,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.468056203427484</v>
+        <v>1.455157164568191</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.091967330386297</v>
@@ -25191,7 +25083,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.471663607981147</v>
+        <v>1.456651562131152</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.085768333656482</v>
@@ -25280,7 +25172,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.479005610142125</v>
+        <v>1.466396492818769</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.084346790306483</v>
@@ -25369,7 +25261,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.487388371405703</v>
+        <v>1.479937561258971</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.122666237293215</v>
@@ -25458,7 +25350,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.494514947538953</v>
+        <v>1.488891056924302</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.09218253158365</v>
@@ -25547,7 +25439,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.496367371519513</v>
+        <v>1.488635313050622</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.129544350662858</v>
@@ -25636,7 +25528,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.498099300735351</v>
+        <v>1.495489877838046</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.112825941084316</v>
@@ -25725,7 +25617,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.50085091627878</v>
+        <v>1.500430860503627</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.135324778872929</v>
@@ -25814,7 +25706,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.549577535673233</v>
+        <v>1.534111127038784</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.065496702279633</v>
@@ -25903,7 +25795,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.618073060394329</v>
+        <v>1.598969602455331</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.181820264988168</v>
@@ -25992,7 +25884,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.659156622045465</v>
+        <v>1.620395448044204</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.193687628533928</v>
@@ -26081,7 +25973,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.654027257374625</v>
+        <v>1.615961769105739</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.200121765243003</v>
@@ -26170,7 +26062,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.653874910320296</v>
+        <v>1.614826943154727</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.192379327130646</v>
@@ -26259,7 +26151,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.653990556074686</v>
+        <v>1.611168726320952</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.19114346511637</v>
@@ -26348,7 +26240,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.644982213887206</v>
+        <v>1.606251002870264</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.205017412721997</v>
@@ -26437,7 +26329,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.647653378875649</v>
+        <v>1.609153828491994</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.198183640910321</v>
@@ -26526,7 +26418,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.661504114997911</v>
+        <v>1.617296589930907</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.214318770926579</v>
@@ -26615,7 +26507,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.655588925185722</v>
+        <v>1.607001019524382</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.204708393878152</v>
@@ -26704,7 +26596,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.651004947317761</v>
+        <v>1.598137992519011</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.17132801550617</v>
@@ -26793,7 +26685,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.641131425191945</v>
+        <v>1.587567130771252</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.182468045903472</v>
@@ -26882,7 +26774,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.61479177294916</v>
+        <v>1.566708460267462</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.169613588359427</v>
@@ -26971,7 +26863,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.4195104898522</v>
+        <v>1.400092794738321</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.620361252521644</v>
@@ -27060,7 +26952,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.413590554277017</v>
+        <v>1.396303776059877</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.623832309285445</v>
@@ -27149,7 +27041,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.420057956792599</v>
+        <v>1.400588662536549</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.598352698482074</v>
@@ -27238,7 +27130,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.368964306269089</v>
+        <v>1.34203247738137</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.54126576047546</v>
@@ -27327,7 +27219,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.359093552110826</v>
+        <v>1.338479207612979</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.510628617543863</v>
@@ -27416,7 +27308,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.356419765130509</v>
+        <v>1.333093028671095</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.506591334064949</v>
@@ -27505,7 +27397,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.351715507244629</v>
+        <v>1.329974054331678</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.509002341882013</v>
@@ -27594,7 +27486,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.355472877309037</v>
+        <v>1.336453920852158</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.496950366746946</v>
@@ -27683,7 +27575,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.360686812280037</v>
+        <v>1.341200576057468</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.500749114799332</v>
@@ -27772,7 +27664,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.361257355138617</v>
+        <v>1.343614019298941</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.503153426937348</v>
@@ -27861,7 +27753,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.358232745149324</v>
+        <v>1.342927363938573</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.502142362894357</v>
@@ -27950,7 +27842,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.362001425951326</v>
+        <v>1.348844112132393</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.499995987136728</v>
@@ -28039,7 +27931,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.369969285603018</v>
+        <v>1.354739866409795</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.502142847397655</v>
@@ -28128,7 +28020,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.379262216720893</v>
+        <v>1.363904481147083</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.515858767984798</v>
@@ -28217,7 +28109,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.424486037124308</v>
+        <v>1.392411069333686</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.525833481760158</v>
@@ -28306,7 +28198,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.731284839104206</v>
+        <v>1.649303183596963</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.907900240230092</v>
@@ -28395,7 +28287,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.749367838508777</v>
+        <v>1.656913343046456</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.494880333300018</v>
@@ -28484,7 +28376,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.750327695177609</v>
+        <v>1.657858632082131</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.268491189942455</v>
@@ -28573,7 +28465,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.735016536897449</v>
+        <v>1.651803562458494</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.438762151039571</v>
@@ -28662,7 +28554,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.748415007512532</v>
+        <v>1.663629109309434</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.213786903038603</v>
@@ -28751,7 +28643,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.757312142080644</v>
+        <v>1.674632748215132</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.172211595217675</v>
@@ -28840,7 +28732,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.76579399351851</v>
+        <v>1.681364836499259</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.518531226162396</v>
@@ -28929,7 +28821,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.769521402868029</v>
+        <v>1.689108321224669</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.482983193783859</v>
@@ -29018,7 +28910,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.770497077889926</v>
+        <v>1.692355916952466</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.089506215175059</v>
@@ -29107,7 +28999,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.778260609694755</v>
+        <v>1.696571324241658</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.528515218529033</v>
@@ -29196,7 +29088,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.787192704003706</v>
+        <v>1.704552761857936</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.44812782810584</v>
@@ -29285,7 +29177,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.785990325985937</v>
+        <v>1.703841504441239</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.140833252206902</v>
@@ -29374,7 +29266,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.769171359441438</v>
+        <v>1.705190313479301</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.258939218969996</v>
@@ -29660,7 +29552,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.47402560484231</v>
+        <v>1.452312407323851</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.938549290689005</v>
@@ -29749,7 +29641,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.513976452261762</v>
+        <v>1.48652661221502</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.798310120915896</v>
@@ -29838,7 +29730,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.526984979855529</v>
+        <v>1.476789588501521</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.784123846219155</v>
@@ -29927,7 +29819,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.547667855272637</v>
+        <v>1.492699885923432</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.011256967331438</v>
@@ -30016,7 +29908,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.5666957453358</v>
+        <v>1.513462781129445</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.746764582016886</v>
@@ -30105,7 +29997,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.506666296659078</v>
+        <v>1.451623014755846</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.828613960361743</v>
@@ -30194,7 +30086,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.450292631143424</v>
+        <v>1.402161736795674</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.880776658987845</v>
@@ -30283,7 +30175,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.381195254826884</v>
+        <v>1.343648671817366</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.929960587185376</v>
@@ -30372,7 +30264,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.386879766768198</v>
+        <v>1.351445323784165</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.942795203830409</v>
@@ -30461,7 +30353,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.385531725058374</v>
+        <v>1.349549651056086</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.933016450197605</v>
@@ -30550,7 +30442,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.391191896094448</v>
+        <v>1.357677342924254</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.932661345488686</v>
@@ -30639,7 +30531,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.394184882972017</v>
+        <v>1.360346939321472</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.944920379858162</v>
@@ -30728,7 +30620,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.391193128222844</v>
+        <v>1.357300379435549</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.941662963164064</v>
@@ -30817,7 +30709,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.36857447579431</v>
+        <v>1.340683287077929</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.958345331401809</v>
@@ -30906,7 +30798,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.353164843790384</v>
+        <v>1.328696232954035</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.930335934478332</v>
@@ -30995,7 +30887,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.365110214420256</v>
+        <v>1.344411712011282</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.959737044941718</v>
@@ -31084,7 +30976,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.374863362135926</v>
+        <v>1.355954920439354</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.945676260154705</v>
@@ -31173,7 +31065,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.381800534468724</v>
+        <v>1.359913994505173</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.968005010131529</v>
@@ -31262,7 +31154,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.384694139167036</v>
+        <v>1.365428868732871</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.97104821368407</v>
@@ -31351,7 +31243,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.380531603260063</v>
+        <v>1.366606162434405</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.989983385889028</v>
@@ -31440,7 +31332,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.429845789364043</v>
+        <v>1.417343708060782</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.941621134250771</v>
@@ -31529,7 +31421,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.413498924010675</v>
+        <v>1.418089914339234</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.775866904877667</v>
@@ -31618,7 +31510,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.430678836627341</v>
+        <v>1.426964218192871</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.786537806651583</v>
@@ -31707,7 +31599,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.423909147379073</v>
+        <v>1.419535090139128</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.78450726235607</v>
@@ -31796,7 +31688,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.424902369850561</v>
+        <v>1.421800436180284</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.789251835930386</v>
@@ -31885,7 +31777,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.421378251165179</v>
+        <v>1.415796484719968</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.777029255179852</v>
@@ -31974,7 +31866,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.421525057180743</v>
+        <v>1.416637434001963</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.77589867756251</v>
@@ -32063,7 +31955,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.432826272934986</v>
+        <v>1.421712331772035</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.793263483219471</v>
@@ -32152,7 +32044,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.454131135456915</v>
+        <v>1.433792393087506</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.783314122635956</v>
@@ -32241,7 +32133,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.45506006685401</v>
+        <v>1.431892276443502</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.773446636441513</v>
@@ -32330,7 +32222,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.451145061463788</v>
+        <v>1.421650317210211</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.758140895949872</v>
@@ -32419,7 +32311,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.445933023669802</v>
+        <v>1.417663709632105</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.755351947969265</v>
@@ -32508,7 +32400,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.430557607874834</v>
+        <v>1.404060451625418</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.750418440667315</v>
@@ -32597,7 +32489,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.329598847177478</v>
+        <v>1.307079928988266</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.665390658732768</v>
@@ -32686,7 +32578,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.330029853439446</v>
+        <v>1.308241138889969</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.659151976732172</v>
@@ -32775,7 +32667,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.337356462164229</v>
+        <v>1.310927699468849</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.640494546244538</v>
@@ -32864,7 +32756,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.351212650031335</v>
+        <v>1.304760905563775</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.507656421469759</v>
@@ -32953,7 +32845,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.352624216817517</v>
+        <v>1.308812402981186</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.48210686731246</v>
@@ -33042,7 +32934,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.356226981295493</v>
+        <v>1.308676867278713</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.49196582245392</v>
@@ -33131,7 +33023,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.355836773896854</v>
+        <v>1.305071686595166</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.489441119467949</v>
@@ -33220,7 +33112,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.355140121414184</v>
+        <v>1.307942806351038</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.481699440826594</v>
@@ -33309,7 +33201,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.35427873376414</v>
+        <v>1.305029156006347</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.4797394766398</v>
@@ -33398,7 +33290,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.351563209979128</v>
+        <v>1.303543160771722</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.479637915001374</v>
@@ -33487,7 +33379,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.348026157338782</v>
+        <v>1.30234442991822</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.480237184987011</v>
@@ -33576,7 +33468,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.347791474703081</v>
+        <v>1.302059542429777</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.476151297210949</v>
@@ -33665,7 +33557,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.342743167246508</v>
+        <v>1.304812149880854</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.479794035487827</v>
@@ -33754,7 +33646,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.342282374304849</v>
+        <v>1.304172132915841</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.479379453408633</v>
@@ -33843,7 +33735,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.388628387751086</v>
+        <v>1.339073174846084</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.460712780489327</v>
@@ -33932,7 +33824,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.664700162337178</v>
+        <v>1.565968419800183</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.849268340389256</v>
@@ -34021,7 +33913,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.675831904257726</v>
+        <v>1.569264164451325</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.835478211888356</v>
@@ -34110,7 +34002,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.676458318440061</v>
+        <v>1.571676045728785</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.90050071810337</v>
@@ -34199,7 +34091,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.67438483094972</v>
+        <v>1.576591042455698</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.788237736839817</v>
@@ -34288,7 +34180,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.666456618352695</v>
+        <v>1.573820297153</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.86155179743138</v>
@@ -34377,7 +34269,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.672321301081672</v>
+        <v>1.585505338078428</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.8241172708514</v>
@@ -34466,7 +34358,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.671804692032121</v>
+        <v>1.586922541799007</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.786347787710813</v>
@@ -34555,7 +34447,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.674707323629513</v>
+        <v>1.592110901994106</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.882893430996293</v>
@@ -34644,7 +34536,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.675517035031133</v>
+        <v>1.597393627556997</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.806574549732017</v>
@@ -34733,7 +34625,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.671609183931098</v>
+        <v>1.609315160401283</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.731214584315963</v>
@@ -34822,7 +34714,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.6771029857431</v>
+        <v>1.621049204131709</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.639316909301475</v>
@@ -34911,7 +34803,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.682656739086883</v>
+        <v>1.627647856890456</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.763019368531824</v>
@@ -35000,7 +34892,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.715419654197968</v>
+        <v>1.647170394217976</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.997820971952058</v>
@@ -35286,7 +35178,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.51876544532856</v>
+        <v>1.532044298662576</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.135557720127172</v>
@@ -35375,7 +35267,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.509641783694359</v>
+        <v>1.520906300594312</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.919535426396235</v>
@@ -35464,7 +35356,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.425849392809605</v>
+        <v>1.411294799426368</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.846471987957176</v>
@@ -35553,7 +35445,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.471970611718169</v>
+        <v>1.458845037754672</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.973924851378042</v>
@@ -35642,7 +35534,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.489241428123252</v>
+        <v>1.475159593055188</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.357472081975204</v>
@@ -35731,7 +35623,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.443998789261882</v>
+        <v>1.444195903604906</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.892484224328602</v>
@@ -35820,7 +35712,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.405467816669806</v>
+        <v>1.403144764375666</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.920859070524527</v>
@@ -35909,7 +35801,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.379594444057332</v>
+        <v>1.380441478386097</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.933315606330192</v>
@@ -35998,7 +35890,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.377447719909206</v>
+        <v>1.381324587833062</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.931709001147012</v>
@@ -36087,7 +35979,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.395892066453535</v>
+        <v>1.397339024435637</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.843352425528768</v>
@@ -36176,7 +36068,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.392325472021351</v>
+        <v>1.394232962763362</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.944308344860333</v>
@@ -36265,7 +36157,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.400306390600422</v>
+        <v>1.403096057615129</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.953640535581844</v>
@@ -36354,7 +36246,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.402812210592501</v>
+        <v>1.407581937574779</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.967877935645729</v>
@@ -36443,7 +36335,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.413360120667593</v>
+        <v>1.413401304255776</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.056999997390175</v>
@@ -36532,7 +36424,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.400327333850445</v>
+        <v>1.408423757756518</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.917321011488937</v>
@@ -36621,7 +36513,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.381465539110903</v>
+        <v>1.390542117268005</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.938691970210116</v>
@@ -36710,7 +36602,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.373785820346246</v>
+        <v>1.382970205410979</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.911894913778509</v>
@@ -36799,7 +36691,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.371976621468346</v>
+        <v>1.379551260439064</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.963701766791793</v>
@@ -36888,7 +36780,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.37830085648581</v>
+        <v>1.386526843866817</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.94073658122172</v>
@@ -36977,7 +36869,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.376762305508527</v>
+        <v>1.388757224514104</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.971807126654672</v>
@@ -37066,7 +36958,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.385670451627209</v>
+        <v>1.38543252078586</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.078206538346823</v>
@@ -37155,7 +37047,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.428195752086362</v>
+        <v>1.439148673716056</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.038363481597215</v>
@@ -37244,7 +37136,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.434151941445917</v>
+        <v>1.431559626733409</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.055116704742595</v>
@@ -37333,7 +37225,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.43349869355337</v>
+        <v>1.43135399317905</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.074512826618465</v>
@@ -37422,7 +37314,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.433210584352192</v>
+        <v>1.431718866505049</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.068525713979466</v>
@@ -37511,7 +37403,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.43979560903595</v>
+        <v>1.44038811282414</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.059401371636643</v>
@@ -37600,7 +37492,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.426062382897686</v>
+        <v>1.428711504145094</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.079993621433689</v>
@@ -37689,7 +37581,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.427152168287549</v>
+        <v>1.428616184494668</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.067090040130294</v>
@@ -37778,7 +37670,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.445754129805038</v>
+        <v>1.445172767976175</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.111912438493303</v>
@@ -37867,7 +37759,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.43606551100599</v>
+        <v>1.43474771764609</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.054115361872112</v>
@@ -37956,7 +37848,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.448066333392283</v>
+        <v>1.442901431463291</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.079711940127898</v>
@@ -38045,7 +37937,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.461015261810591</v>
+        <v>1.455104515580797</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.01149319765096</v>
@@ -38134,7 +38026,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.462406744891371</v>
+        <v>1.45503092568838</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.013215688322326</v>
@@ -38223,7 +38115,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.362126713189846</v>
+        <v>1.358406016365865</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.732171883270233</v>
@@ -38312,7 +38204,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.36270307615336</v>
+        <v>1.356845095259409</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.738187008530496</v>
@@ -38401,7 +38293,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.389530084127784</v>
+        <v>1.379552050557944</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.616631624158653</v>
@@ -38490,7 +38382,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.364252399342823</v>
+        <v>1.348474792203926</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.588435062933447</v>
@@ -38579,7 +38471,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.348415385018698</v>
+        <v>1.343004879599919</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.583818775858471</v>
@@ -38668,7 +38560,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.345869743763838</v>
+        <v>1.337673835123461</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.575723971855964</v>
@@ -38757,7 +38649,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.343787554845401</v>
+        <v>1.335607596935028</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.577878940898946</v>
@@ -38846,7 +38738,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.34777928394329</v>
+        <v>1.340405030657942</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.55871178726108</v>
@@ -38935,7 +38827,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.36184692015584</v>
+        <v>1.351897557054281</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.56203379836687</v>
@@ -39024,7 +38916,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.351253882672668</v>
+        <v>1.34046622722882</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.56654623051214</v>
@@ -39113,7 +39005,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.349907454781501</v>
+        <v>1.337754546232934</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.579226005668751</v>
@@ -39202,7 +39094,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.371239594910262</v>
+        <v>1.358949534730209</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.570216882516568</v>
@@ -39291,7 +39183,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.37848291351408</v>
+        <v>1.368616142012586</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.585574571577881</v>
@@ -39380,7 +39272,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.381533010629524</v>
+        <v>1.3727020122401</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.577930430811695</v>
@@ -39469,7 +39361,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.405474418962268</v>
+        <v>1.38967860226381</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.597799080136668</v>
@@ -39558,7 +39450,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.59429244929693</v>
+        <v>1.56297366177293</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.407523241599275</v>
@@ -39647,7 +39539,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.6156423662133</v>
+        <v>1.579960595333611</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.534438712457458</v>
@@ -39736,7 +39628,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.621321149162013</v>
+        <v>1.585292875341431</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.637210156516343</v>
@@ -39825,7 +39717,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.57825326179222</v>
+        <v>1.557775363368497</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.68223898173715</v>
@@ -39914,7 +39806,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.614996917395377</v>
+        <v>1.590482349417129</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.81271742446878</v>
@@ -40003,7 +39895,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.613599785922219</v>
+        <v>1.590552518431075</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.525228430004758</v>
@@ -40092,7 +39984,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.612758732929101</v>
+        <v>1.589186295426008</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.653843758458206</v>
@@ -40181,7 +40073,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.605046835490086</v>
+        <v>1.582387247053871</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.604178779069023</v>
@@ -40270,7 +40162,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.610462343332925</v>
+        <v>1.589256529283386</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.373757053967313</v>
@@ -40359,7 +40251,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.642392888704492</v>
+        <v>1.62138387064789</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.657289764601312</v>
@@ -40448,7 +40340,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.650650288949981</v>
+        <v>1.632147661045252</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.589042413959973</v>
@@ -40537,7 +40429,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.631869255897209</v>
+        <v>1.610768871920487</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.524166834003855</v>
@@ -40626,7 +40518,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.596274097402363</v>
+        <v>1.587130392628945</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.641939646682696</v>
